--- a/biology/Zoologie/Antirrhea_ornata/Antirrhea_ornata.xlsx
+++ b/biology/Zoologie/Antirrhea_ornata/Antirrhea_ornata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Antirrhea ornata est une espèce de lépidoptère de la famille des Nymphalidés et du genre Antirrhea.
 </t>
@@ -511,9 +523,11 @@
           <t>Historique et dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Antirrhea ornata a été décrit par le zoologiste britannique Arthur Gardiner Butler en 1870[1]. La localité type est la Guyane française.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Antirrhea ornata a été décrit par le zoologiste britannique Arthur Gardiner Butler en 1870. La localité type est la Guyane française.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Antirrhea ornata est un papillon aux ailes antérieures à bord externe légèrement concave et aux ailes postérieures formant une pointe en n5. Le dessus est marron avec une bande postdiscale de taches bleues largement bordées de noir.
 Le revers est marron avec une ligne de discrètes petites taches blanches.
@@ -571,12 +587,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Antirrhea ornata est présent en Guyane,.
+</t>
         </is>
       </c>
     </row>
@@ -606,10 +625,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Antirrhea ornata est présent en Guyane[2],[3].
-Biotope
-Protection
-Pas de statut de protection particulier
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier
 Sur les autres projets Wikimedia :
 Antirrhea ornata, sur Wikimedia CommonsAntirrhea ornata, sur Wikispecies
 </t>
